--- a/kabir_fir_data.xlsx
+++ b/kabir_fir_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,26 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>I, Priya Sharma, a resident of Gomti Nagar, Lucknow, wish to file a complaint regarding a serious crime committed against me on March 17, 2025. At around 7:30 PM, I was returning home from Phoenix Mall, Lucknow, after meeting a friend. I was walking towards the auto-rickshaw stand near Hazratganj Main Road when Ramesh Yadav, whom I knew from college, forcibly pulled me into his white Honda City (UP32 AB 1234). He drove me to an isolated farmhouse in the outskirts of Lucknow (near Sultanpur Road). Inside the house, he locked the doors and physically assaulted me, threatened me with a knife, and raped me against my will. He warned me not to report to the police, saying that he had political connections and would harm my family if I spoke out.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Section 376, Section 392, Section 342, Section 506, Section 394, Section 323, Section 397, Section 344, Section 340, Section 343, Section 503, Section 325, Section 324, Section 375, Section 390, Section 376D, Section 507, Section 351, Section 352, Section 376A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I, Priya Sharma, a resident of Gomti Nagar, Lucknow, wish to file a complaint regarding a serious crime committed against me on March 17, 2025. At around 7:30 PM, I was returning home from Phoenix Mall, Lucknow, after meeting a friend. I was walking towards the auto-rickshaw stand near Hazratganj Main Road when Ramesh Yadav, whom I knew from college, forcibly pulled me into his white Honda City (UP32 AB 1234). He drove me to an isolated farmhouse in the outskirts of Lucknow (near Sultanpur Road). Inside the house, he locked the doors and physically assaulted me, threatened me with a knife, and raped me against my will. He warned me not to report to the police, saying that he had political connections and would harm my family if I spoke out.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/kabir_fir_data.xlsx
+++ b/kabir_fir_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,50 @@
           <t>I, Priya Sharma, a resident of Gomti Nagar, Lucknow, wish to file a complaint regarding a serious crime committed against me on March 17, 2025. At around 7:30 PM, I was returning home from Phoenix Mall, Lucknow, after meeting a friend. I was walking towards the auto-rickshaw stand near Hazratganj Main Road when Ramesh Yadav, whom I knew from college, forcibly pulled me into his white Honda City (UP32 AB 1234). He drove me to an isolated farmhouse in the outskirts of Lucknow (near Sultanpur Road). Inside the house, he locked the doors and physically assaulted me, threatened me with a knife, and raped me against my will. He warned me not to report to the police, saying that he had political connections and would harm my family if I spoke out.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>I, Priya Sharma, a resident of Gomti Nagar, Lucknow, wish to file a complaint regarding a serious crime committed against me on March 17, 2025. At around 7:30 PM, I was returning home from Phoenix Mall, Lucknow, after meeting a friend. I was walking towards the auto-rickshaw stand near Hazratganj Main Road when Ramesh Yadav, whom I knew from college, forcibly pulled me into his white Honda City (UP32 AB 1234). He drove me to an isolated farmhouse in the outskirts of Lucknow (near Sultanpur Road). Inside the house, he locked the doors and physically assaulted me, threatened me with a knife, and raped me against my will. He warned me not to report to the police, saying that he had political connections and would harm my family if I spoke out.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Section 376, Section 392, Section 342, Section 506, Section 394, Section 323, Section 397, Section 503, Section 344, Section 351, Section 376A, Section 376D, Section 390, Section 324, Section 340, Section 325, Section 352, Section 375, Section 507, Section 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FIR Number: 123/2025
+Date: 02/05/2025
+Police Station: Sector 21, Ahmedabad
+Complainant Name: Rajesh Kumar
+Father’s Name: Mahesh Kumar
+Address: 45, Green Park Society, Ahmedabad
+Contact: 9876543210
+Incident Date: 01/05/2025
+Incident Time: ~8:30 PM
+Place of Incident: Near Shree Mall, SG Highway, Ahmedabad
+Details of Incident:
+The complainant, Mr. Rajesh Kumar, reports that on the evening of May 1, 2025, he was returning home from work on his motorcycle. While waiting at the traffic signal near Shree Mall, a group of three unidentified men approached him. One of them forcibly snatched his mobile phone and wallet, while another threatened him with a knife. They also hit him on the arm when he tried to resist. The men quickly fled on a black motorcycle parked nearby.
+Items Stolen:
+One iPhone 14 Pro (black)
+Leather wallet containing ₹3,500 cash, ID cards, and credit cards
+Injuries: Minor injury on left arm due to physical assault.
+Witnesses: Some shopkeepers nearby; no known personal witnesses.
+Accused Description:
+Approx. age 25-30
+Wearing black jackets and helmets
+Motorcycle: Black Bajaj Pulsar, no visible number plate</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Section 376, Section 392, Section 506, Section 394, Section 323, Section 397, Section 378, Section 380, Section 351, Section 503, Section 319, Section 507, Section 390, Section 381, Section 324, Section 320, Section 325, Section 352, Section 379</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
